--- a/2025_07_14_daurskoe/combined.xlsx
+++ b/2025_07_14_daurskoe/combined.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Lenta Rob" sheetId="1" r:id="rId1"/>
@@ -660,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -712,15 +712,15 @@
       </c>
       <c r="G2">
         <f>SUMPRODUCT(B4:B70,G4:G70)</f>
-        <v>13881.116599999996</v>
+        <v>13796.121599999997</v>
       </c>
       <c r="H2">
         <f>SUMPRODUCT(B4:B70,H4:H70)</f>
-        <v>5527.0667000000003</v>
+        <v>4902.0166999999992</v>
       </c>
       <c r="I2">
         <f>SUMPRODUCT(B4:B70,I4:I70)</f>
-        <v>1784.9167</v>
+        <v>2494.9616999999998</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1236,7 +1236,10 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="I31">
+        <v>0.5</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -1359,7 +1362,10 @@
         <v>2</v>
       </c>
       <c r="H37">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="I37">
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -1404,7 +1410,10 @@
         <v>3</v>
       </c>
       <c r="H39">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -1701,7 +1710,7 @@
   <dimension ref="A1:I81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:G9"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2317,7 +2326,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>

--- a/2025_07_14_daurskoe/combined.xlsx
+++ b/2025_07_14_daurskoe/combined.xlsx
@@ -4,15 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Lenta Rob" sheetId="1" r:id="rId1"/>
     <sheet name="Lenta Viktor" sheetId="4" r:id="rId2"/>
     <sheet name="Hooka Rob" sheetId="6" r:id="rId3"/>
+    <sheet name="Jenya Everything" sheetId="8" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="rob_lenta" localSheetId="2">'Hooka Rob'!$A$1:$C$3</definedName>
+    <definedName name="rob_lenta" localSheetId="3">'Jenya Everything'!$A$1:$C$3</definedName>
     <definedName name="rob_lenta" localSheetId="0">'Lenta Rob'!$A$1:$C$3</definedName>
     <definedName name="rob_lenta" localSheetId="1">'Lenta Viktor'!$A$1:$C$3</definedName>
   </definedNames>
@@ -54,11 +56,20 @@
       </textFields>
     </textPr>
   </connection>
+  <connection id="4" name="rob_lenta111" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="65001" sourceFile="E:\pycharm\calcs\2025_07_14_daurskoe\rob_lenta.csv" tab="0" comma="1">
+      <textFields count="3">
+        <textField type="text"/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="67">
   <si>
     <t>Наименование товара</t>
   </si>
@@ -250,6 +261,15 @@
   </si>
   <si>
     <t>Уголь Crown 22м 96, 1 кг</t>
+  </si>
+  <si>
+    <t>Шаурма</t>
+  </si>
+  <si>
+    <t>Стоянка</t>
+  </si>
+  <si>
+    <t>Бенз</t>
   </si>
 </sst>
 </file>
@@ -292,7 +312,31 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -393,6 +437,10 @@
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="rob_lenta" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="rob_lenta" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -660,8 +708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1684,10 +1732,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D4:D81">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="notEqual">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="notEqual">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="3" operator="notEqual">
@@ -1696,7 +1744,7 @@
     <cfRule type="cellIs" priority="5" operator="notEqual">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2301,6 +2349,808 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D4:D81">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="4" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I81"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2">
+        <f>SUMPRODUCT(B4:B40,C4:C40)</f>
+        <v>8625</v>
+      </c>
+      <c r="F2">
+        <f>SUMPRODUCT(B4:B70,F4:F70)</f>
+        <v>5085</v>
+      </c>
+      <c r="G2">
+        <f>SUMPRODUCT(B4:B70,G4:G70)</f>
+        <v>3540</v>
+      </c>
+      <c r="H2">
+        <f>SUMPRODUCT(B4:B70,H4:H70)</f>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f>SUMPRODUCT(B4:B70,I4:I70)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4">
+        <v>330</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D67" si="0">C4 - SUM(F4:I4)</f>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5">
+        <v>330</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6">
+        <v>330</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7">
+        <v>1080</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0.5</v>
+      </c>
+      <c r="G7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8">
+        <v>1080</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9">
+        <v>960</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10">
+        <v>265</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11">
+        <v>265</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12">
+        <v>265</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13">
+        <v>265</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14">
+        <v>240</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15">
+        <v>240</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16">
+        <v>240</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17">
+        <v>240</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18">
+        <v>245</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19">
+        <v>310</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20">
+        <v>310</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21">
+        <v>650</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D67">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D68">
+        <f t="shared" ref="D68:D81" si="1">C68 - SUM(F68:I68)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D71">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D73">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D75">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D77">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D78">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D79">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D81">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D4:D81">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
@@ -2322,12 +3172,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2361,7 +3211,7 @@
         <v>39</v>
       </c>
       <c r="I1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -2370,31 +3220,31 @@
       </c>
       <c r="B2">
         <f>SUMPRODUCT(B4:B40,C4:C40)</f>
-        <v>8625</v>
+        <v>7916</v>
       </c>
       <c r="F2">
         <f>SUMPRODUCT(B4:B70,F4:F70)</f>
-        <v>5085</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <f>SUMPRODUCT(B4:B70,G4:G70)</f>
-        <v>3540</v>
+        <v>2732</v>
       </c>
       <c r="H2">
         <f>SUMPRODUCT(B4:B70,H4:H70)</f>
-        <v>0</v>
+        <v>2732</v>
       </c>
       <c r="I2">
         <f>SUMPRODUCT(B4:B70,I4:I70)</f>
-        <v>0</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="B4">
-        <v>330</v>
+        <v>280</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -2403,396 +3253,223 @@
         <f t="shared" ref="D4:D67" si="0">C4 - SUM(F4:I4)</f>
         <v>0</v>
       </c>
-      <c r="F4">
-        <v>2</v>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="B5">
-        <v>330</v>
+        <v>1500</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F5">
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="B6">
-        <v>330</v>
+        <v>56</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F6">
-        <v>1</v>
+      <c r="G6">
+        <v>17</v>
+      </c>
+      <c r="H6">
+        <v>17</v>
+      </c>
+      <c r="I6">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7">
-        <v>1080</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
       <c r="D7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F7">
-        <v>0.5</v>
-      </c>
-      <c r="G7">
-        <v>0.5</v>
-      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8">
-        <v>1080</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
       <c r="D8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9">
-        <v>960</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
       <c r="D9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10">
-        <v>265</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
       <c r="D10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11">
-        <v>265</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
       <c r="D11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12">
-        <v>265</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
       <c r="D12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13">
-        <v>265</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
       <c r="D13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14">
-        <v>240</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
       <c r="D14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15">
-        <v>240</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
       <c r="D15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16">
-        <v>240</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
       <c r="D16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17">
-        <v>240</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18">
-        <v>245</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19">
-        <v>310</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20">
-        <v>310</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21">
-        <v>650</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
       <c r="D21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="D22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="D23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="D24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="D25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="D26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="D27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="D28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="D29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="D30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="D31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="D32">
         <f t="shared" si="0"/>

--- a/2025_07_14_daurskoe/combined.xlsx
+++ b/2025_07_14_daurskoe/combined.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Lenta Rob" sheetId="1" r:id="rId1"/>
@@ -2374,8 +2374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3176,8 +3176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/2025_07_14_daurskoe/combined.xlsx
+++ b/2025_07_14_daurskoe/combined.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Lenta Rob" sheetId="1" r:id="rId1"/>
@@ -708,8 +708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O40" sqref="O40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,11 +760,11 @@
       </c>
       <c r="G2">
         <f>SUMPRODUCT(B4:B70,G4:G70)</f>
-        <v>13796.121599999997</v>
+        <v>16196.111599999997</v>
       </c>
       <c r="H2">
         <f>SUMPRODUCT(B4:B70,H4:H70)</f>
-        <v>4902.0166999999992</v>
+        <v>2502.0266999999999</v>
       </c>
       <c r="I2">
         <f>SUMPRODUCT(B4:B70,I4:I70)</f>
@@ -1076,9 +1076,6 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
       <c r="I20">
         <v>1</v>
       </c>
@@ -1115,7 +1112,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H22">
+      <c r="G22">
         <v>1</v>
       </c>
     </row>
@@ -2374,7 +2371,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
